--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Spring.011920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Spring.011920.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1857,12 +1857,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2865,12 +2865,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4671,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4881,12 +4881,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5259,12 +5259,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5553,12 +5553,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5679,12 +5679,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5805,12 +5805,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6435,12 +6435,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6477,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6729,12 +6729,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6897,12 +6897,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6981,12 +6981,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7527,12 +7527,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7905,12 +7905,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8661,12 +8661,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8703,12 +8703,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8745,12 +8745,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10681,12 +10681,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10849,12 +10849,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11017,12 +11017,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11479,12 +11479,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12067,12 +12067,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12827,12 +12827,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12995,12 +12995,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13247,12 +13247,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14049,12 +14049,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14091,12 +14091,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14217,12 +14217,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14385,12 +14385,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14427,12 +14427,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14721,12 +14721,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15817,12 +15817,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15859,12 +15859,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15901,12 +15901,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16027,12 +16027,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16111,12 +16111,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16993,12 +16993,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17623,12 +17623,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
